--- a/biology/Zoologie/Argiope_argentata/Argiope_argentata.xlsx
+++ b/biology/Zoologie/Argiope_argentata/Argiope_argentata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argiope argentata est une espèce d'araignées aranéomorphes de la famille des Araneidae[1]. En français elle est communément appelée Argiope argentée.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argiope argentata est une espèce d'araignées aranéomorphes de la famille des Araneidae. En français elle est communément appelée Argiope argentée.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Amérique du sud des États-Unis, en Californie, en Arizona, au Texas et en Floride[2], au nord de l'Argentine y compris aux Antilles[1],[3] et en Guyane. Elle fait donc partie de la faune française d' Outre-Mer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Amérique du sud des États-Unis, en Californie, en Arizona, au Texas et en Floride, au nord de l'Argentine y compris aux Antilles, et en Guyane. Elle fait donc partie de la faune française d' Outre-Mer.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce d'araignée vit dans les milieux secs ouverts.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Argiope argentata présente un dimorphisme sexuel important. Les mâles mesurent de 2,8 à 5,2 mm et les femelles de 6,2 à 18,8 mm[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Argiope argentata présente un dimorphisme sexuel important. Les mâles mesurent de 2,8 à 5,2 mm et les femelles de 6,2 à 18,8 mm.
 Argiope argentata femelle est remarquable avec la couleur argentée de son céphalothorax et les taches jaunes et noires qui ornent ses pattes et l'extrémité de son abdomen.
 </t>
         </is>
@@ -607,13 +625,16 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Toile
-Elle construit une grande toile géométrique à 50-100 cm du sol. 
+          <t>Toile</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle construit une grande toile géométrique à 50-100 cm du sol. 
 			Vue dorsale
 			Toile d'Argiope argentée avec quatre stabilisateurs.
-Alimentation
-L'argiope argentée nourrit principalement d'insectes comme les mouches, les papillons et autres volants qui viennent d'emprisonner dans sa toile. On peut parfois aussi y voir de petites libellules.
-Reproduction</t>
+</t>
         </is>
       </c>
     </row>
@@ -638,10 +659,49 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Comportement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'argiope argentée nourrit principalement d'insectes comme les mouches, les papillons et autres volants qui viennent d'emprisonner dans sa toile. On peut parfois aussi y voir de petites libellules.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Argiope_argentata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argiope_argentata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Fabricius, 1775  : Systema entomologiae, sistens insectorum classes, ordines, genera, species, adiectis, synonymis, locis descriptionibus observationibus. Flensburg and Lipsiae, p. 1-832.</t>
         </is>
